--- a/biology/Médecine/Aina_Wifalk/Aina_Wifalk.xlsx
+++ b/biology/Médecine/Aina_Wifalk/Aina_Wifalk.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aina Lucia Wifalk, née le 21 mars 1928 à Lund dans le comté de Scanie, morte le 16 juin 1983 à Västerås Badelunda församling dans la province de Västmanland[1], était une travailleuse sociale suédoise, qui a inventé le déambulateur dans les années 1970.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aina Lucia Wifalk, née le 21 mars 1928 à Lund dans le comté de Scanie, morte le 16 juin 1983 à Västerås Badelunda församling dans la province de Västmanland, était une travailleuse sociale suédoise, qui a inventé le déambulateur dans les années 1970.
 </t>
         </is>
       </c>
@@ -513,13 +525,53 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contexte
-En 1949, quand Wifalk avait 21 ans, elle a été atteinte par la poliomyélite. Elle a dû interrompre son cursus d'infirmière[2],[3], commencé à Lund[4].
-En 1952, elle a créé l'association d'invalidité du comté de Västmanland. En 1958, elle a formé le Riksföreningen för trafikskadade à Västerås en 1968[2].
-Elle est devenue curatrice à la clinique orthopédique de Västerås lasarett en 1957 et, en 1968, conservatrice des handicaps dans la municipalité de Västerås[2],[3].
-Inventrice
-Aina Wifalk a également travaillé en tant qu'inventrice. Au milieu des années 1960, elle a inventé le manuped, un outil de formation en réadaptation qui ressemble à un vélo de route[5]. Dans un manuped, vous pouvez simultanément entraîner vos bras et vos jambes tout en étant assis dans une chaise ou un fauteuil roulant.
-En 1976, alors conservatrice de handicap, Aina Wifalk a été en arrêt maladie pour des problèmes d'épaule persistants depuis plus de vingt ans. Elle a commencé à réfléchir à des solutions pour aider les personnes qui ont des difficultés à marcher seules ; en 1978, elle a eu une idée complète d'un tout nouveau type d'assistant de roue. Dans la même année, elle a demandé un fonds de développement financé par l'Etat pour aider à développer son projet. Le gestionnaire du fonds a compris le potentiel, a apporté un soutien financier et a mis Aina Wifalk en relation avec une entreprise qui a conçu le premier prototype. Trois ans plus tard, la production a commencé[3].
+          <t>Contexte</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1949, quand Wifalk avait 21 ans, elle a été atteinte par la poliomyélite. Elle a dû interrompre son cursus d'infirmière commencé à Lund.
+En 1952, elle a créé l'association d'invalidité du comté de Västmanland. En 1958, elle a formé le Riksföreningen för trafikskadade à Västerås en 1968.
+Elle est devenue curatrice à la clinique orthopédique de Västerås lasarett en 1957 et, en 1968, conservatrice des handicaps dans la municipalité de Västerås,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Aina_Wifalk</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aina_Wifalk</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Inventrice</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aina Wifalk a également travaillé en tant qu'inventrice. Au milieu des années 1960, elle a inventé le manuped, un outil de formation en réadaptation qui ressemble à un vélo de route. Dans un manuped, vous pouvez simultanément entraîner vos bras et vos jambes tout en étant assis dans une chaise ou un fauteuil roulant.
+En 1976, alors conservatrice de handicap, Aina Wifalk a été en arrêt maladie pour des problèmes d'épaule persistants depuis plus de vingt ans. Elle a commencé à réfléchir à des solutions pour aider les personnes qui ont des difficultés à marcher seules ; en 1978, elle a eu une idée complète d'un tout nouveau type d'assistant de roue. Dans la même année, elle a demandé un fonds de développement financé par l'Etat pour aider à développer son projet. Le gestionnaire du fonds a compris le potentiel, a apporté un soutien financier et a mis Aina Wifalk en relation avec une entreprise qui a conçu le premier prototype. Trois ans plus tard, la production a commencé.
 Aina Wifalk voulait que le déambulateur soit disponible pour le plus de gens possible, elle ne l'a jamais brevetée. Cependant, elle a reçu des redevances de la vente, qu'elle a reversé à une association religieuse de Costa del Sol.
 </t>
         </is>
